--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3742.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3742.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.232787814836347</v>
+        <v>4.16494083404541</v>
       </c>
       <c r="B1">
-        <v>2.438291746207852</v>
+        <v>2.548657655715942</v>
       </c>
       <c r="C1">
-        <v>4.916303783327404</v>
+        <v>1.170292019844055</v>
       </c>
       <c r="D1">
-        <v>3.030546575027497</v>
+        <v>0.5840051770210266</v>
       </c>
       <c r="E1">
-        <v>1.167887909615217</v>
+        <v>0.4197693467140198</v>
       </c>
     </row>
   </sheetData>
